--- a/example_output/stats.xlsx
+++ b/example_output/stats.xlsx
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/example_output/stats.xlsx
+++ b/example_output/stats.xlsx
@@ -426,7 +426,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>13</v>
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/example_output/stats.xlsx
+++ b/example_output/stats.xlsx
@@ -426,7 +426,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>296</v>
       </c>
       <c r="C2">
         <v>13</v>
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>119</v>
+        <v>328</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/example_output/stats.xlsx
+++ b/example_output/stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>cost</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>min_gap_pairs</t>
+  </si>
+  <si>
+    <t>max_rest_days</t>
+  </si>
+  <si>
+    <t>n_high_rest_days_all</t>
+  </si>
+  <si>
+    <t>n_high_rest_days_rel</t>
   </si>
   <si>
     <t>LEAGUE A</t>
@@ -395,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,13 +429,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C2">
         <v>13</v>
@@ -443,13 +461,22 @@
       <c r="G2">
         <v>7</v>
       </c>
+      <c r="H2">
+        <v>28</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>328</v>
+        <v>951</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -464,7 +491,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/example_output/stats.xlsx
+++ b/example_output/stats.xlsx
@@ -444,7 +444,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C2">
         <v>13</v>
@@ -476,7 +476,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>951</v>
+        <v>362</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -494,13 +494,13 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/example_output/stats.xlsx
+++ b/example_output/stats.xlsx
@@ -444,7 +444,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="C2">
         <v>13</v>
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -476,7 +476,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C3">
         <v>13</v>

--- a/example_output/stats.xlsx
+++ b/example_output/stats.xlsx
@@ -444,7 +444,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C2">
         <v>13</v>
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -476,7 +476,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3">
         <v>0</v>
